--- a/biology/Botanique/Victor_Raulin/Victor_Raulin.xlsx
+++ b/biology/Botanique/Victor_Raulin/Victor_Raulin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Raulin, né le 8 août 1815 à Paris et mort le 10 février 1905 à Montfaucon-d'Argonne (Meuse), est un géologue français ayant étudié également la botanique, la paléobotanique et la météorologie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né dans le quartier de l'Observatoire à Paris le 8 août 1815, Victor Felix Raulin est le fils de Nicole Glin, une couturière originaire des Ardennes. Son père, Nicolas-Urbain Raulin, meusien ayant fait ses études de médecine à Paris, ne le reconnaitra qu'en 1836, quelques mois après la mort de son propre père, Jean-Baptiste Raulin (avocat, juge de paix puis député de la Meuse). Victor a alors 21 ans et suit déjà depuis plusieurs années les cours du Muséum national d'histoire naturelle. Il y devient préparateur le 1er mai 1838 et travaille dans le « cabinet de géologie » de Louis Cordier du 1er avril 1839 au 1er mars 1846.
 Jeune membre de la Société géologique de France depuis 9 janvier 1837, Raulin est vite remarqué et devient l’un des deux vice-secrétaires de la SGF de 1840 à 1844, puis le secrétaire de 1845 à 1846. Il assiste ainsi les présidents Alexandre Brongniart (1840), Antoine Passy (1841), Alcide Dessalines d'Orbigny (1842), le vicomte Adolphe d'Archiac (1843), Léonce Élie de Beaumont (1845) et Édouard de Verneuil (1846). 
@@ -546,9 +560,11 @@
           <t>Sélection de travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Carte géognostique du Plateau tertiaire parisien au 300 000e, 1843[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Carte géognostique du Plateau tertiaire parisien au 300 000e, 1843.
 Géologie de la France, 1844.
 Mémoire sur la constitution géologique du Sancerrois (Cher), 1844 (impr. 1847).
 Nouvel Essai d'une classification des terrains tertiaires de l'Aquitaine (thèse de doctorat), 1848.
@@ -586,12 +602,14 @@
           <t>Sociétés savantes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Académie nationale des sciences, belles-lettres et arts de Bordeaux
 Comité des travaux historiques et scientifiques : membre non résidant (1858-1875), 1858-1875
 Société géologique de France : membre (1837), 1837
-Société linnéenne de Bordeaux[2]</t>
+Société linnéenne de Bordeaux</t>
         </is>
       </c>
     </row>
@@ -619,11 +637,13 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chevalier de l'ordre national de la Légion d'honneur le 7 août 1870.
 Chevalier de l'ordre du Sauveur de Grèce en 1872.
-Prix Victor-Raulin : par un acte du 14 août 1905, ses héritiers font don de 1500 francs de rente annuelle à l'Académie des sciences pour fonder un prix facilitant la publication de travaux en sciences naturelles (géologie et paléontologie ; minéralogie et pétrographie ; météorologie et physique du globe)[3].
+Prix Victor-Raulin : par un acte du 14 août 1905, ses héritiers font don de 1500 francs de rente annuelle à l'Académie des sciences pour fonder un prix facilitant la publication de travaux en sciences naturelles (géologie et paléontologie ; minéralogie et pétrographie ; météorologie et physique du globe).
 Le nom de Victor Raulin a été donné à une place de Bordeaux (inauguration le 14 juillet 1903).</t>
         </is>
       </c>
